--- a/data/case1/15/Q2_13.xlsx
+++ b/data/case1/15/Q2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.119519643307747</v>
+        <v>0.12831060389814297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.034406126503458978</v>
+        <v>-0.0059999999887949684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999875988124</v>
+        <v>0.0021970331440908097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999769508889</v>
+        <v>-0.0079999999829141188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999877476924</v>
+        <v>-0.0029999999914291919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999875448538</v>
+        <v>-0.0019999999916802125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999680875362</v>
+        <v>-0.0099999999767317327</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999671935846</v>
+        <v>-0.0099999999759874392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.007908990755696621</v>
+        <v>-0.0019999999898292486</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999839637184</v>
+        <v>0.0087802852090987926</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999813865585</v>
+        <v>-0.0029999999871668237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999798319692</v>
+        <v>-0.0034999999859830488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999784597335</v>
+        <v>-0.0034999999847427077</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999673106004</v>
+        <v>-0.0079999999761790619</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998377953148</v>
+        <v>-0.00099999998877464691</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999811401992</v>
+        <v>-0.0019999999867450491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999807902569</v>
+        <v>-0.0019999999864470652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999759068317</v>
+        <v>-0.0039999999827058375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999900688366</v>
+        <v>-0.0039999999923896468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999893858273</v>
+        <v>-0.0039999999917981199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999892827987</v>
+        <v>-0.0039999999917261775</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999892001981</v>
+        <v>-0.003999999991654235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999844958509</v>
+        <v>-0.0049999999884873247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999947368785</v>
+        <v>-0.019999999959854797</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999946702651</v>
+        <v>-0.019999999959311232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999861297084</v>
+        <v>-0.0024999999907233672</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0023346052400925466</v>
+        <v>-0.0024999999907127091</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999856956663</v>
+        <v>-0.001999999991543433</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999728818096</v>
+        <v>0.010066299353738373</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999846134688</v>
+        <v>-0.059999999885437916</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.054680474781143573</v>
+        <v>0.06673091813475196</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999667943484</v>
+        <v>-0.0099999999785147509</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999810422793</v>
+        <v>-0.0039999999894462235</v>
       </c>
     </row>
   </sheetData>
